--- a/biology/Botanique/Antirhea/Antirhea.xlsx
+++ b/biology/Botanique/Antirhea/Antirhea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antirhea est un genre de plante de la famille des Rubiaceae. On rencontre ces espèces principalement dans le sud-est asiatique du sud de la Chine à Bornéo et les Philippines, ainsi qu'en Nouvelle-Guinée, Mélanésie, Madagascar et certaines îles de l'océan Indien (Mauritanie, La Réunion, Rodrigues)[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antirhea est un genre de plante de la famille des Rubiaceae. On rencontre ces espèces principalement dans le sud-est asiatique du sud de la Chine à Bornéo et les Philippines, ainsi qu'en Nouvelle-Guinée, Mélanésie, Madagascar et certaines îles de l'océan Indien (Mauritanie, La Réunion, Rodrigues),.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (2 novembre 2015)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (2 novembre 2015) :
 Antirhea affinis (Zoll.) Chaw
 Antirhea anodon (Miq.) Chaw
 Antirhea atropurpurea (Craib) Chaw
@@ -578,9 +594,9 @@
 Antirhea tayabensis Chaw
 Antirhea tenuiflora F.Muell. ex Benth.
 Antirhea ternata Chaw
-Selon ITIS      (2 novembre 2015)[5] :
+Selon ITIS      (2 novembre 2015) :
 Antirhea borbonica J.F. Gmel.
-Selon World Checklist of Selected Plant Families (WCSP)  (2 novembre 2015)[6] :
+Selon World Checklist of Selected Plant Families (WCSP)  (2 novembre 2015) :
 Antirhea affinis (Zoll.) Chaw (1992)
 Antirhea anodon (Miq.) Chaw (1992)
 Antirhea atropurpurea (Craib) Chaw (1988)
@@ -621,7 +637,7 @@
 Antirhea tayabensis Chaw (1992)
 Antirhea tenuiflora F.Muell. ex Benth. (1867)
 Antirhea ternata Chaw (1992)
-Selon NCBI  (2 novembre 2015)[7] :
+Selon NCBI  (2 novembre 2015) :
 Antirhea borbonica
 Antirhea chinensis
 Antirhea madagascariensis
@@ -629,7 +645,7 @@
 Antirhea rhamnoides
 Antirhea smithii
 Antirhea tenuiflora
-Selon The Plant List            (2 novembre 2015)[8] :
+Selon The Plant List            (2 novembre 2015) :
 Antirhea affinis (Zoll.) Chaw
 Antirhea anodon (Miq.) Chaw
 Antirhea atropurpurea (Craib) Chaw
@@ -668,7 +684,7 @@
 Antirhea tayabensis Chaw
 Antirhea tenuiflora F.Muell. ex Benth.
 Antirhea ternata Chaw
-Selon Tropicos                                           (2 novembre 2015)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (2 novembre 2015) (Attention liste brute contenant possiblement des synonymes) :
 Antirhea abbreviata Urb.
 Antirhea acutata (DC.) Urb.
 Antirhea affinis (Zoll.) Chaw
